--- a/test.xlsx
+++ b/test.xlsx
@@ -19,9 +19,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="1">
-  <si>
-    <t>python</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -368,87 +401,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="C2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="C3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="C5">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="C6">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
+      <c r="C7">
+        <v>1985</v>
       </c>
     </row>
   </sheetData>
